--- a/indentation.xlsx
+++ b/indentation.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tal\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\Tal\Code\other\xls-to-indent-txt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{57658343-90C2-4BEA-B6A9-1223611B5746}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49A0A4EE-D33A-429E-BE66-6EA26C48112D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="17496" xr2:uid="{9489DE4F-6165-4A9B-9659-48D34C950E98}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="23040" windowHeight="12660" xr2:uid="{9489DE4F-6165-4A9B-9659-48D34C950E98}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>hello</t>
   </si>
@@ -48,6 +48,12 @@
   </si>
   <si>
     <t>hey</t>
+  </si>
+  <si>
+    <t>hello world 2</t>
+  </si>
+  <si>
+    <t>hey there</t>
   </si>
 </sst>
 </file>
@@ -419,13 +425,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD3E5081-9A85-4CEC-9A3E-2A5D8195ACB6}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="S8" sqref="S8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1">
@@ -453,6 +462,20 @@
       </c>
       <c r="D2">
         <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>23</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3">
+        <v>4321</v>
       </c>
     </row>
   </sheetData>

--- a/indentation.xlsx
+++ b/indentation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\Tal\Code\other\xls-to-indent-txt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49A0A4EE-D33A-429E-BE66-6EA26C48112D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC7CD8F6-2BD4-4A0C-A2BE-C16BF5BE6A88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="23040" windowHeight="12660" xr2:uid="{9489DE4F-6165-4A9B-9659-48D34C950E98}"/>
+    <workbookView xWindow="39930" yWindow="1305" windowWidth="23040" windowHeight="12660" xr2:uid="{9489DE4F-6165-4A9B-9659-48D34C950E98}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,17 +36,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
-  <si>
-    <t>hello</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
   <si>
     <t>hello world</t>
   </si>
   <si>
-    <t>hi</t>
-  </si>
-  <si>
     <t>hey</t>
   </si>
   <si>
@@ -54,6 +48,21 @@
   </si>
   <si>
     <t>hey there</t>
+  </si>
+  <si>
+    <t>Numbers</t>
+  </si>
+  <si>
+    <t>Strings</t>
+  </si>
+  <si>
+    <t>Values</t>
+  </si>
+  <si>
+    <t>Sentences</t>
+  </si>
+  <si>
+    <t>hello world 3</t>
   </si>
 </sst>
 </file>
@@ -425,29 +434,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD3E5081-9A85-4CEC-9A3E-2A5D8195ACB6}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S8" sqref="S8"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1">
-        <v>123</v>
+      <c r="A1" t="s">
+        <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1">
-        <v>4</v>
+        <v>7</v>
+      </c>
+      <c r="D1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -455,27 +466,41 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
-        <v>3</v>
-      </c>
       <c r="D2">
-        <v>21</v>
+        <v>21.3</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>23</v>
+        <v>123</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D3">
-        <v>4321</v>
+        <v>4321.5429999999997</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>123456789</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4">
+        <v>123456789.26000001</v>
       </c>
     </row>
   </sheetData>
